--- a/biology/Zoologie/Hottentotta_tamulus/Hottentotta_tamulus.xlsx
+++ b/biology/Zoologie/Hottentotta_tamulus/Hottentotta_tamulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scorpion rouge d'Inde
 Hottentotta tamulus, le Scorpion rouge d'Inde est une espèce de scorpions de la famille des Buthidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Pakistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Pakistan.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hottentotta tamulus mesure de 50 à 90 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hottentotta tamulus mesure de 50 à 90 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa piqûre est dangereuse, voire mortelle pour l'être humain, à cause de la présence d'ibériotoxine dans le venin[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa piqûre est dangereuse, voire mortelle pour l'être humain, à cause de la présence d'ibériotoxine dans le venin.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio tamulus par Fabricius en 1798. Elle est placée dans le genre Buthus par Pocock en 1900[4], dans le genre Buthotus par Vachon en 1949[5], dans le genre Mesobuthus par Tikader et Bastawade en 1983[6] puis dans le genre Hottentotta par Kovařík en 1998[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio tamulus par Fabricius en 1798. Elle est placée dans le genre Buthus par Pocock en 1900, dans le genre Buthotus par Vachon en 1949, dans le genre Mesobuthus par Tikader et Bastawade en 1983 puis dans le genre Hottentotta par Kovařík en 1998.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fabricius, 1798 : Entomologiae Systematicae. Supplementum. Hafniae: Apud Proft et Storch, p. 1–572.</t>
         </is>
